--- a/data/liming_app_data_template_v1-1.xlsx
+++ b/data/liming_app_data_template_v1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B20335F-97A0-436C-8949-F72580FF9C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E531E2A1-C221-4650-92D1-A78691EB250E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9C4AF9C2-F8EB-49E2-B469-DF75940E84A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9C4AF9C2-F8EB-49E2-B469-DF75940E84A8}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -729,7 +729,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +811,7 @@
       <c r="C7" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <autoFilter ref="A1:C4" xr:uid="{9F3E6969-2EA2-4991-A613-ABFE39273DCD}"/>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be between 0 and 100." sqref="C6:C7" xr:uid="{B4F7F020-E335-45C6-BFE2-0403AF201DC8}">
@@ -829,7 +829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1184,7 @@
       <c r="E26" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <autoFilter ref="A1:E26" xr:uid="{2AF23D70-A132-42CB-B3DB-5C5C08EE7040}"/>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Concentration must be positive (or zero)." sqref="D2:E26" xr:uid="{0AE957A3-F0E8-418F-84EC-884D47BC6753}">
@@ -1202,7 +1202,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1636,7 @@
       <c r="F26" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <autoFilter ref="A1:F26" xr:uid="{F9945553-4EF7-4B43-BEB8-0FA1F4D50DBF}"/>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Concentration must be positive (or zero)." sqref="E2:F26" xr:uid="{6A644E39-EEC9-458A-8A2D-64080D5D2709}">
